--- a/03_BasicDesign/ModuleDesign.xlsx
+++ b/03_BasicDesign/ModuleDesign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+  <si>
+    <t>m_user</t>
+  </si>
+  <si>
+    <t>t_request</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
   <si>
     <t>モジュール設計</t>
   </si>
@@ -184,6 +196,84 @@
   </si>
   <si>
     <t>MainPage</t>
+  </si>
+  <si>
+    <t>support_language</t>
+  </si>
+  <si>
+    <t>m_support_time</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>tue</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>thur</t>
+  </si>
+  <si>
+    <t>fri</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>hh:mm-hh:mm</t>
+  </si>
+  <si>
+    <t>native_language</t>
+  </si>
+  <si>
+    <t>request_id</t>
+  </si>
+  <si>
+    <t>request_user</t>
+  </si>
+  <si>
+    <t>support_user</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>request_content</t>
+  </si>
+  <si>
+    <t>t_convesation</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>column</t>
   </si>
 </sst>
 </file>
@@ -216,15 +306,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -321,11 +417,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,6 +452,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4928,34 +5043,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.35">
       <c r="Z2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="BC2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AF3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BC3" s="3"/>
       <c r="BH3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.35">
@@ -4964,12 +5081,12 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="BC5" s="3"/>
       <c r="BD5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.35">
@@ -4982,45 +5099,45 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.35">
       <c r="W8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AE8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BC8" s="3"/>
       <c r="BP8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.35">
       <c r="W9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="BC9" s="3"/>
       <c r="BP9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.35">
       <c r="W10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="3"/>
       <c r="BC10" s="3"/>
       <c r="BP10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.35">
       <c r="W11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="BC11" s="3"/>
       <c r="BP11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.35">
@@ -5041,12 +5158,12 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="BC16" s="3"/>
       <c r="BD16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.35">
@@ -5059,11 +5176,11 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="W19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AE19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BC19" s="3"/>
     </row>
@@ -5073,7 +5190,7 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="W21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="BC21" s="3"/>
@@ -5100,7 +5217,7 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="BC27" s="3"/>
@@ -5147,7 +5264,7 @@
     </row>
     <row r="38" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="BC38" s="3"/>
@@ -5177,12 +5294,12 @@
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH40" s="9"/>
       <c r="AI40" s="9"/>
@@ -5205,13 +5322,13 @@
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z41" s="3"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="9"/>
       <c r="AH41" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
@@ -5233,16 +5350,16 @@
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z42" s="3"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="9"/>
       <c r="AH42" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
@@ -5264,16 +5381,16 @@
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z43" s="3"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="9"/>
@@ -5295,13 +5412,13 @@
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="9"/>
       <c r="AH44" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
@@ -5369,12 +5486,12 @@
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH47" s="9"/>
       <c r="AI47" s="9"/>
@@ -5397,13 +5514,13 @@
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="9"/>
       <c r="AH48" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI48" s="9"/>
       <c r="AJ48" s="9"/>
@@ -5425,16 +5542,16 @@
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="9"/>
       <c r="AH49" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI49" s="9"/>
       <c r="AJ49" s="9"/>
@@ -5461,7 +5578,7 @@
       <c r="AH50" s="9"/>
       <c r="AI50" s="9"/>
       <c r="AJ50" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
@@ -5481,13 +5598,13 @@
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z51" s="3"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="9"/>
       <c r="AH51" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI51" s="9"/>
       <c r="AJ51" s="9"/>
@@ -5509,7 +5626,7 @@
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AF52" s="7"/>
@@ -5535,7 +5652,7 @@
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AF53" s="7"/>
@@ -5564,7 +5681,7 @@
       <c r="AF54" s="7"/>
       <c r="AG54" s="9"/>
       <c r="AH54" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI54" s="9"/>
       <c r="AJ54" s="9"/>
@@ -5586,14 +5703,14 @@
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="9"/>
       <c r="AH55" s="9"/>
       <c r="AI55" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
@@ -5614,7 +5731,7 @@
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z56" s="3"/>
       <c r="AF56" s="7"/>
@@ -5640,13 +5757,13 @@
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="9"/>
       <c r="AH57" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
@@ -5668,7 +5785,7 @@
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.35">
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AF58" s="7"/>
@@ -5694,13 +5811,13 @@
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AF59" s="7"/>
       <c r="AG59" s="9"/>
       <c r="AH59" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI59" s="9"/>
       <c r="AJ59" s="9"/>
@@ -5722,7 +5839,7 @@
     </row>
     <row r="60" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AF60" s="11"/>
@@ -5748,7 +5865,7 @@
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="BC61" s="3"/>
@@ -5761,14 +5878,14 @@
       <c r="Z63" s="3"/>
       <c r="BC63" s="3"/>
       <c r="BD63" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.35">
       <c r="Z64" s="3"/>
       <c r="BC64" s="3"/>
       <c r="BE64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="26:57" x14ac:dyDescent="0.35">
@@ -5787,14 +5904,14 @@
       <c r="Z68" s="3"/>
       <c r="BC68" s="3"/>
       <c r="BD68" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="26:57" x14ac:dyDescent="0.35">
       <c r="Z69" s="3"/>
       <c r="BC69" s="3"/>
       <c r="BE69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="26:57" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5828,7 +5945,7 @@
       <c r="Z72" s="3"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH72" s="9"/>
       <c r="AI72" s="9"/>
@@ -5849,7 +5966,7 @@
       <c r="AX72" s="10"/>
       <c r="BC72" s="3"/>
       <c r="BD72" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="26:57" x14ac:dyDescent="0.35">
@@ -5857,7 +5974,7 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="9"/>
       <c r="AH73" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AI73" s="9"/>
       <c r="AJ73" s="9"/>
@@ -5877,7 +5994,7 @@
       <c r="AX73" s="10"/>
       <c r="BC73" s="3"/>
       <c r="BE73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="26:57" x14ac:dyDescent="0.35">
@@ -5885,7 +6002,7 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="9"/>
       <c r="AH74" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI74" s="9"/>
       <c r="AJ74" s="9"/>
@@ -5932,7 +6049,7 @@
       <c r="Z76" s="3"/>
       <c r="AF76" s="7"/>
       <c r="AG76" s="8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH76" s="9"/>
       <c r="AI76" s="9"/>
@@ -5958,7 +6075,7 @@
       <c r="AF77" s="7"/>
       <c r="AG77" s="9"/>
       <c r="AH77" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AI77" s="9"/>
       <c r="AJ77" s="9"/>
@@ -6005,7 +6122,7 @@
       <c r="Z79" s="3"/>
       <c r="AF79" s="7"/>
       <c r="AG79" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH79" s="9"/>
       <c r="AI79" s="9"/>
@@ -6131,7 +6248,7 @@
       <c r="Z91" s="3"/>
       <c r="AF91" s="7"/>
       <c r="AG91" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH91" s="9"/>
       <c r="AI91" s="9"/>
@@ -6152,7 +6269,7 @@
       <c r="AX91" s="10"/>
       <c r="BC91" s="3"/>
       <c r="BD91" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="26:57" x14ac:dyDescent="0.35">
@@ -6160,7 +6277,7 @@
       <c r="AF92" s="7"/>
       <c r="AG92" s="9"/>
       <c r="AH92" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AI92" s="9"/>
       <c r="AJ92" s="9"/>
@@ -6180,7 +6297,7 @@
       <c r="AX92" s="10"/>
       <c r="BC92" s="3"/>
       <c r="BE92" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="26:57" x14ac:dyDescent="0.35">
@@ -6188,7 +6305,7 @@
       <c r="AF93" s="7"/>
       <c r="AG93" s="9"/>
       <c r="AH93" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI93" s="9"/>
       <c r="AJ93" s="9"/>
@@ -6235,7 +6352,7 @@
       <c r="Z95" s="3"/>
       <c r="AF95" s="7"/>
       <c r="AG95" s="8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH95" s="9"/>
       <c r="AI95" s="9"/>
@@ -6261,7 +6378,7 @@
       <c r="AF96" s="7"/>
       <c r="AG96" s="9"/>
       <c r="AH96" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI96" s="9"/>
       <c r="AJ96" s="9"/>
@@ -6308,7 +6425,7 @@
       <c r="Z98" s="3"/>
       <c r="AF98" s="7"/>
       <c r="AG98" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH98" s="9"/>
       <c r="AI98" s="9"/>
@@ -6433,27 +6550,430 @@
     </row>
     <row r="115" spans="26:55" x14ac:dyDescent="0.35">
       <c r="Z115" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BC115" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="36" max="16383" man="1"/>
+    <brk id="71" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" customWidth="1"/>
+    <col min="6" max="6" width="3.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" customWidth="1"/>
+    <col min="11" max="11" width="3.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F11" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" ref="K3:K9" si="1">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="15">
+        <f t="shared" ref="P3:P5" si="2">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <f t="shared" ref="A4:A7" si="3">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="P4" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="P5" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>